--- a/Assets/OriginalDatas/DNAUp.xlsx
+++ b/Assets/OriginalDatas/DNAUp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="186">
   <si>
     <t>升级属性ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1035,12 +1035,112 @@
     <t>InfectShield</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue1_Add</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oldParam_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GemParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue1_Add</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oldParam_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GemParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,6 +1213,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1134,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,6 +1272,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1441,1247 +1563,1247 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>6</v>
+      </c>
+      <c r="K3" s="14">
+        <v>7</v>
+      </c>
+      <c r="L3" s="14">
+        <v>5</v>
+      </c>
+      <c r="M3" s="14">
+        <v>8</v>
+      </c>
+      <c r="N3" s="14">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>6</v>
+      </c>
+      <c r="K4" s="14">
+        <v>7</v>
+      </c>
+      <c r="L4" s="14">
+        <v>5</v>
+      </c>
+      <c r="M4" s="14">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
+        <v>6</v>
+      </c>
+      <c r="K5" s="14">
+        <v>7</v>
+      </c>
+      <c r="L5" s="14">
+        <v>5</v>
+      </c>
+      <c r="M5" s="14">
+        <v>8</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>10</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14">
+        <v>5</v>
+      </c>
+      <c r="M6" s="14">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
+        <v>6</v>
+      </c>
+      <c r="K7" s="14">
+        <v>7</v>
+      </c>
+      <c r="L7" s="14">
+        <v>5</v>
+      </c>
+      <c r="M7" s="14">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>10</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6</v>
+      </c>
+      <c r="K8" s="14">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14">
+        <v>5</v>
+      </c>
+      <c r="M8" s="14">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="14">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>6</v>
+      </c>
+      <c r="K9" s="14">
+        <v>7</v>
+      </c>
+      <c r="L9" s="14">
+        <v>5</v>
+      </c>
+      <c r="M9" s="14">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14">
+        <v>1</v>
+      </c>
+      <c r="O9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>6</v>
+      </c>
+      <c r="K10" s="14">
+        <v>7</v>
+      </c>
+      <c r="L10" s="14">
+        <v>5</v>
+      </c>
+      <c r="M10" s="14">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>10</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14">
+        <v>7</v>
+      </c>
+      <c r="L11" s="14">
+        <v>5</v>
+      </c>
+      <c r="M11" s="14">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14">
+        <v>7</v>
+      </c>
+      <c r="L12" s="14">
+        <v>5</v>
+      </c>
+      <c r="M12" s="14">
+        <v>8</v>
+      </c>
+      <c r="N12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>10</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <v>6</v>
+      </c>
+      <c r="K13" s="14">
+        <v>7</v>
+      </c>
+      <c r="L13" s="14">
+        <v>5</v>
+      </c>
+      <c r="M13" s="14">
+        <v>8</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <v>6</v>
+      </c>
+      <c r="K14" s="14">
+        <v>7</v>
+      </c>
+      <c r="L14" s="14">
+        <v>5</v>
+      </c>
+      <c r="M14" s="14">
+        <v>8</v>
+      </c>
+      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="B15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="14">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>10</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14">
+        <v>7</v>
+      </c>
+      <c r="L15" s="14">
+        <v>5</v>
+      </c>
+      <c r="M15" s="14">
+        <v>8</v>
+      </c>
+      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="14">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>10</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>6</v>
+      </c>
+      <c r="K16" s="14">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L16" s="14">
+        <v>5</v>
+      </c>
+      <c r="M16" s="14">
+        <v>8</v>
+      </c>
+      <c r="N16" s="14">
+        <v>1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="14">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>10</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
+        <v>6</v>
+      </c>
+      <c r="K17" s="14">
+        <v>7</v>
+      </c>
+      <c r="L17" s="14">
+        <v>5</v>
+      </c>
+      <c r="M17" s="14">
+        <v>8</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1</v>
+      </c>
+      <c r="O17" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>10</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>6</v>
+      </c>
+      <c r="K18" s="14">
+        <v>7</v>
+      </c>
+      <c r="L18" s="14">
+        <v>5</v>
+      </c>
+      <c r="M18" s="14">
+        <v>8</v>
+      </c>
+      <c r="N18" s="14">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="14">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>10</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>6</v>
+      </c>
+      <c r="K19" s="14">
+        <v>7</v>
+      </c>
+      <c r="L19" s="14">
+        <v>5</v>
+      </c>
+      <c r="M19" s="14">
+        <v>8</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="14">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>10</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>6</v>
+      </c>
+      <c r="K20" s="14">
+        <v>7</v>
+      </c>
+      <c r="L20" s="14">
+        <v>5</v>
+      </c>
+      <c r="M20" s="14">
+        <v>8</v>
+      </c>
+      <c r="N20" s="14">
+        <v>1</v>
+      </c>
+      <c r="O20" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="14">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>10</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
+        <v>6</v>
+      </c>
+      <c r="K21" s="14">
+        <v>7</v>
+      </c>
+      <c r="L21" s="14">
+        <v>5</v>
+      </c>
+      <c r="M21" s="14">
+        <v>8</v>
+      </c>
+      <c r="N21" s="14">
+        <v>1</v>
+      </c>
+      <c r="O21" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="14">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>10</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14">
+        <v>6</v>
+      </c>
+      <c r="K22" s="14">
+        <v>7</v>
+      </c>
+      <c r="L22" s="14">
+        <v>5</v>
+      </c>
+      <c r="M22" s="14">
+        <v>8</v>
+      </c>
+      <c r="N22" s="14">
+        <v>1</v>
+      </c>
+      <c r="O22" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="14">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>10</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14">
+        <v>6</v>
+      </c>
+      <c r="K23" s="14">
+        <v>7</v>
+      </c>
+      <c r="L23" s="14">
+        <v>5</v>
+      </c>
+      <c r="M23" s="14">
+        <v>8</v>
+      </c>
+      <c r="N23" s="14">
+        <v>1</v>
+      </c>
+      <c r="O23" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="14">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>10</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>6</v>
+      </c>
+      <c r="K24" s="14">
+        <v>7</v>
+      </c>
+      <c r="L24" s="14">
+        <v>5</v>
+      </c>
+      <c r="M24" s="14">
+        <v>8</v>
+      </c>
+      <c r="N24" s="14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="B25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="14">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>10</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K25" s="14">
         <v>7</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L25" s="14">
         <v>5</v>
       </c>
-      <c r="M3" s="1">
-        <v>8</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="M25" s="14">
+        <v>8</v>
+      </c>
+      <c r="N25" s="14">
+        <v>1</v>
+      </c>
+      <c r="O25" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="B26" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="14">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14">
+        <v>10</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>10</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K26" s="14">
         <v>7</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L26" s="14">
         <v>5</v>
       </c>
-      <c r="M4" s="1">
-        <v>8</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>8</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>8</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>7</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>8</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>8</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>8</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>6</v>
-      </c>
-      <c r="K10" s="1">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>8</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1">
-        <v>7</v>
-      </c>
-      <c r="L11" s="1">
-        <v>5</v>
-      </c>
-      <c r="M11" s="1">
-        <v>8</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1">
-        <v>8</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1">
-        <v>7</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5</v>
-      </c>
-      <c r="M13" s="1">
-        <v>8</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6</v>
-      </c>
-      <c r="K14" s="1">
-        <v>7</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5</v>
-      </c>
-      <c r="M14" s="1">
-        <v>8</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1">
-        <v>7</v>
-      </c>
-      <c r="L15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>8</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1">
-        <v>8</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1">
-        <v>5</v>
-      </c>
-      <c r="M17" s="1">
-        <v>8</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>6</v>
-      </c>
-      <c r="K18" s="1">
-        <v>7</v>
-      </c>
-      <c r="L18" s="1">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1">
-        <v>8</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>6</v>
-      </c>
-      <c r="K19" s="1">
-        <v>7</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1">
-        <v>8</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>6</v>
-      </c>
-      <c r="K20" s="1">
-        <v>7</v>
-      </c>
-      <c r="L20" s="1">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1">
-        <v>8</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6</v>
-      </c>
-      <c r="K21" s="1">
-        <v>7</v>
-      </c>
-      <c r="L21" s="1">
-        <v>5</v>
-      </c>
-      <c r="M21" s="1">
-        <v>8</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>6</v>
-      </c>
-      <c r="K22" s="1">
-        <v>7</v>
-      </c>
-      <c r="L22" s="1">
-        <v>5</v>
-      </c>
-      <c r="M22" s="1">
-        <v>8</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>6</v>
-      </c>
-      <c r="K23" s="1">
-        <v>7</v>
-      </c>
-      <c r="L23" s="1">
-        <v>5</v>
-      </c>
-      <c r="M23" s="1">
-        <v>8</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>6</v>
-      </c>
-      <c r="K24" s="1">
-        <v>7</v>
-      </c>
-      <c r="L24" s="1">
-        <v>5</v>
-      </c>
-      <c r="M24" s="1">
-        <v>8</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>6</v>
-      </c>
-      <c r="K25" s="1">
-        <v>7</v>
-      </c>
-      <c r="L25" s="1">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1">
-        <v>8</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>6</v>
-      </c>
-      <c r="K26" s="1">
-        <v>7</v>
-      </c>
-      <c r="L26" s="1">
-        <v>5</v>
-      </c>
-      <c r="M26" s="1">
-        <v>8</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4">
+      <c r="M26" s="14">
+        <v>8</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1</v>
+      </c>
+      <c r="O26" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2697,10 +2819,10 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
@@ -2717,7 +2839,7 @@
     <col min="14" max="15" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2886,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2822,22 +2944,22 @@
         <f>B3</f>
         <v>MaxHP</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14">
         <v>1</v>
       </c>
       <c r="J3" s="7">
@@ -2859,7 +2981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2870,22 +2992,22 @@
         <f t="shared" ref="C4:C18" si="0">B4</f>
         <v>MaxInfection</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
         <v>1</v>
       </c>
       <c r="J4" s="8">
@@ -2907,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2918,22 +3040,22 @@
         <f t="shared" si="0"/>
         <v>Atk_P</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14">
         <v>1</v>
       </c>
       <c r="J5" s="8">
@@ -2955,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2966,22 +3088,22 @@
         <f t="shared" si="0"/>
         <v>Atk_M</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="D6" s="14">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>10</v>
+      </c>
+      <c r="I6" s="14">
         <v>1</v>
       </c>
       <c r="J6" s="8">
@@ -3003,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -3014,22 +3136,22 @@
         <f t="shared" si="0"/>
         <v>Def_P</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10</v>
+      </c>
+      <c r="I7" s="14">
         <v>1</v>
       </c>
       <c r="J7" s="8">
@@ -3051,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3062,22 +3184,22 @@
         <f t="shared" si="0"/>
         <v>Def_M</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>10</v>
+      </c>
+      <c r="I8" s="14">
         <v>1</v>
       </c>
       <c r="J8" s="8">
@@ -3099,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3110,22 +3232,22 @@
         <f t="shared" si="0"/>
         <v>InfectShield</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="D9" s="14">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
         <v>1</v>
       </c>
       <c r="J9" s="8">
@@ -3147,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3158,22 +3280,22 @@
         <f t="shared" si="0"/>
         <v>InfectionAnti</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14">
         <v>1</v>
       </c>
       <c r="J10" s="8">
@@ -3195,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1">
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -3206,22 +3328,22 @@
         <f t="shared" si="0"/>
         <v>CommunicationAnti</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>10</v>
+      </c>
+      <c r="I11" s="14">
         <v>1</v>
       </c>
       <c r="J11" s="8">
@@ -3243,7 +3365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="6" customFormat="1">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3254,22 +3376,22 @@
         <f t="shared" si="0"/>
         <v>HPHealing</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14">
         <v>1</v>
       </c>
       <c r="J12" s="8">
@@ -3291,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -3302,22 +3424,22 @@
         <f t="shared" si="0"/>
         <v>ClimateBoost_1</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>10</v>
+      </c>
+      <c r="I13" s="14">
         <v>1</v>
       </c>
       <c r="J13" s="8">
@@ -3339,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="6" customFormat="1">
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3350,22 +3472,22 @@
         <f t="shared" si="0"/>
         <v>ClimateBoost_2</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="14">
         <v>1</v>
       </c>
       <c r="J14" s="8">
@@ -3387,7 +3509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1">
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3398,22 +3520,22 @@
         <f t="shared" si="0"/>
         <v>ClimateBoost_3</v>
       </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="D15" s="14">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>10</v>
+      </c>
+      <c r="I15" s="14">
         <v>1</v>
       </c>
       <c r="J15" s="8">
@@ -3435,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="6" customFormat="1">
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3446,22 +3568,22 @@
         <f t="shared" si="0"/>
         <v>EnviBoost_1</v>
       </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="D16" s="14">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>10</v>
+      </c>
+      <c r="I16" s="14">
         <v>1</v>
       </c>
       <c r="J16" s="8">
@@ -3483,7 +3605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="6" customFormat="1">
+    <row r="17" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3494,22 +3616,22 @@
         <f t="shared" si="0"/>
         <v>EnviBoost_2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="D17" s="14">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>10</v>
+      </c>
+      <c r="I17" s="14">
         <v>1</v>
       </c>
       <c r="J17" s="8">
@@ -3531,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="6" customFormat="1">
+    <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -3542,22 +3664,22 @@
         <f t="shared" si="0"/>
         <v>EnviBoost_3</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="D18" s="14">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>10</v>
+      </c>
+      <c r="I18" s="14">
         <v>1</v>
       </c>
       <c r="J18" s="10">
@@ -3585,7 +3707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="6" customFormat="1">
+    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -3596,22 +3718,22 @@
         <f t="shared" ref="C19:C34" si="2">B19&amp;"_1"</f>
         <v>MaxHP_1</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="D19" s="14">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>10</v>
+      </c>
+      <c r="I19" s="14">
         <v>1</v>
       </c>
       <c r="J19" s="6">
@@ -3639,7 +3761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1">
+    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -3650,22 +3772,22 @@
         <f t="shared" si="2"/>
         <v>MaxInfection_1</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="D20" s="14">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>10</v>
+      </c>
+      <c r="I20" s="14">
         <v>1</v>
       </c>
       <c r="J20" s="6">
@@ -3693,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="6" customFormat="1">
+    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -3704,22 +3826,22 @@
         <f t="shared" si="2"/>
         <v>Atk_P_1</v>
       </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="D21" s="14">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>10</v>
+      </c>
+      <c r="I21" s="14">
         <v>1</v>
       </c>
       <c r="J21" s="6">
@@ -3747,7 +3869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="6" customFormat="1">
+    <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -3758,22 +3880,22 @@
         <f t="shared" si="2"/>
         <v>Atk_M_1</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="D22" s="14">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>10</v>
+      </c>
+      <c r="I22" s="14">
         <v>1</v>
       </c>
       <c r="J22" s="6">
@@ -3801,7 +3923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="6" customFormat="1">
+    <row r="23" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -3812,22 +3934,22 @@
         <f t="shared" si="2"/>
         <v>Def_P_1</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="D23" s="14">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>10</v>
+      </c>
+      <c r="I23" s="14">
         <v>1</v>
       </c>
       <c r="J23" s="6">
@@ -3855,7 +3977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="6" customFormat="1">
+    <row r="24" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -3866,22 +3988,22 @@
         <f t="shared" si="2"/>
         <v>Def_M_1</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="D24" s="14">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>10</v>
+      </c>
+      <c r="I24" s="14">
         <v>1</v>
       </c>
       <c r="J24" s="6">
@@ -3909,7 +4031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="6" customFormat="1">
+    <row r="25" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -3920,22 +4042,22 @@
         <f t="shared" si="2"/>
         <v>InfectShield_1</v>
       </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="D25" s="14">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>10</v>
+      </c>
+      <c r="I25" s="14">
         <v>1</v>
       </c>
       <c r="J25" s="6">
@@ -3963,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="6" customFormat="1">
+    <row r="26" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3974,22 +4096,22 @@
         <f t="shared" si="2"/>
         <v>InfectionAnti_1</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="D26" s="14">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14">
+        <v>10</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>10</v>
+      </c>
+      <c r="I26" s="14">
         <v>1</v>
       </c>
       <c r="J26" s="6">
@@ -4017,7 +4139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1">
+    <row r="27" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -4028,22 +4150,22 @@
         <f t="shared" si="2"/>
         <v>CommunicationAnti_1</v>
       </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="D27" s="14">
+        <v>10</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14">
+        <v>10</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>10</v>
+      </c>
+      <c r="I27" s="14">
         <v>1</v>
       </c>
       <c r="J27" s="6">
@@ -4071,7 +4193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="6" customFormat="1">
+    <row r="28" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -4082,22 +4204,22 @@
         <f t="shared" si="2"/>
         <v>HPHealing_1</v>
       </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="D28" s="14">
+        <v>10</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>10</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>10</v>
+      </c>
+      <c r="I28" s="14">
         <v>1</v>
       </c>
       <c r="J28" s="6">
@@ -4125,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="6" customFormat="1">
+    <row r="29" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -4136,22 +4258,22 @@
         <f t="shared" si="2"/>
         <v>ClimateBoost_1_1</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="D29" s="14">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
+        <v>10</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14">
+        <v>10</v>
+      </c>
+      <c r="I29" s="14">
         <v>1</v>
       </c>
       <c r="J29" s="6">
@@ -4179,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="6" customFormat="1">
+    <row r="30" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -4190,22 +4312,22 @@
         <f t="shared" si="2"/>
         <v>ClimateBoost_2_1</v>
       </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
+      <c r="D30" s="14">
+        <v>10</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14">
+        <v>10</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <v>10</v>
+      </c>
+      <c r="I30" s="14">
         <v>1</v>
       </c>
       <c r="J30" s="6">
@@ -4233,7 +4355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="6" customFormat="1">
+    <row r="31" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -4244,22 +4366,22 @@
         <f t="shared" si="2"/>
         <v>ClimateBoost_3_1</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="D31" s="14">
+        <v>10</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14">
+        <v>10</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14">
+        <v>10</v>
+      </c>
+      <c r="I31" s="14">
         <v>1</v>
       </c>
       <c r="J31" s="6">
@@ -4287,7 +4409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="6" customFormat="1">
+    <row r="32" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -4298,22 +4420,22 @@
         <f t="shared" si="2"/>
         <v>EnviBoost_1_1</v>
       </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="D32" s="14">
+        <v>10</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <v>10</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14">
+        <v>10</v>
+      </c>
+      <c r="I32" s="14">
         <v>1</v>
       </c>
       <c r="J32" s="6">
@@ -4341,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -4352,22 +4474,22 @@
         <f t="shared" si="2"/>
         <v>EnviBoost_2_1</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="D33" s="14">
+        <v>10</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14">
+        <v>10</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14">
+        <v>10</v>
+      </c>
+      <c r="I33" s="14">
         <v>1</v>
       </c>
       <c r="J33" s="6">
@@ -4395,7 +4517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -4406,22 +4528,22 @@
         <f t="shared" si="2"/>
         <v>EnviBoost_3_1</v>
       </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="7">
+      <c r="D34" s="14">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14">
+        <v>10</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
+      <c r="H34" s="14">
+        <v>10</v>
+      </c>
+      <c r="I34" s="14">
         <v>1</v>
       </c>
       <c r="J34" s="6">
@@ -4462,822 +4584,823 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C17"/>
+      <selection activeCell="D3" sqref="D3:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12">
+        <v>5</v>
+      </c>
+      <c r="M3" s="12">
+        <v>8</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>6</v>
+      </c>
+      <c r="K4" s="12">
+        <v>7</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="12">
+        <v>8</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>6</v>
+      </c>
+      <c r="K5" s="12">
+        <v>7</v>
+      </c>
+      <c r="L5" s="12">
+        <v>5</v>
+      </c>
+      <c r="M5" s="12">
+        <v>8</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>10</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>6</v>
+      </c>
+      <c r="K6" s="12">
+        <v>7</v>
+      </c>
+      <c r="L6" s="12">
+        <v>5</v>
+      </c>
+      <c r="M6" s="12">
+        <v>8</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>6</v>
+      </c>
+      <c r="K7" s="12">
+        <v>7</v>
+      </c>
+      <c r="L7" s="12">
+        <v>5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>8</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>10</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>6</v>
+      </c>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12">
+        <v>5</v>
+      </c>
+      <c r="M8" s="12">
+        <v>8</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="14">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12">
+        <v>7</v>
+      </c>
+      <c r="L9" s="12">
+        <v>5</v>
+      </c>
+      <c r="M9" s="12">
+        <v>8</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>6</v>
+      </c>
+      <c r="K10" s="12">
+        <v>7</v>
+      </c>
+      <c r="L10" s="12">
+        <v>5</v>
+      </c>
+      <c r="M10" s="12">
+        <v>8</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>10</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12">
+        <v>7</v>
+      </c>
+      <c r="L11" s="12">
+        <v>5</v>
+      </c>
+      <c r="M11" s="12">
+        <v>8</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>6</v>
+      </c>
+      <c r="K12" s="12">
+        <v>7</v>
+      </c>
+      <c r="L12" s="12">
+        <v>5</v>
+      </c>
+      <c r="M12" s="12">
+        <v>8</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>10</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>6</v>
+      </c>
+      <c r="K13" s="12">
+        <v>7</v>
+      </c>
+      <c r="L13" s="12">
+        <v>5</v>
+      </c>
+      <c r="M13" s="12">
+        <v>8</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>6</v>
+      </c>
+      <c r="K14" s="12">
+        <v>7</v>
+      </c>
+      <c r="L14" s="12">
+        <v>5</v>
+      </c>
+      <c r="M14" s="12">
+        <v>8</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="B15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="14">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>10</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>6</v>
+      </c>
+      <c r="K15" s="12">
+        <v>7</v>
+      </c>
+      <c r="L15" s="12">
+        <v>5</v>
+      </c>
+      <c r="M15" s="12">
+        <v>8</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="14">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>10</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>6</v>
+      </c>
+      <c r="K16" s="12">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="L16" s="12">
+        <v>5</v>
+      </c>
+      <c r="M16" s="12">
+        <v>8</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="14">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>10</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K17" s="12">
         <v>7</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L17" s="12">
         <v>5</v>
       </c>
-      <c r="M3" s="1">
-        <v>8</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1">
-        <v>8</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>8</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>8</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>7</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>8</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>8</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>8</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>6</v>
-      </c>
-      <c r="K10" s="1">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>8</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1">
-        <v>7</v>
-      </c>
-      <c r="L11" s="1">
-        <v>5</v>
-      </c>
-      <c r="M11" s="1">
-        <v>8</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1">
-        <v>8</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1">
-        <v>7</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5</v>
-      </c>
-      <c r="M13" s="1">
-        <v>8</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6</v>
-      </c>
-      <c r="K14" s="1">
-        <v>7</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5</v>
-      </c>
-      <c r="M14" s="1">
-        <v>8</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1">
-        <v>7</v>
-      </c>
-      <c r="L15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>8</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1">
-        <v>8</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1">
-        <v>5</v>
-      </c>
-      <c r="M17" s="1">
-        <v>8</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="M17" s="12">
+        <v>8</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12">
         <v>2</v>
       </c>
     </row>
@@ -5292,17 +5415,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -5322,12 +5445,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -5335,7 +5458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5343,7 +5466,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -5351,7 +5474,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -5359,7 +5482,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -5367,7 +5490,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -5375,7 +5498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -5383,7 +5506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5391,7 +5514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -5399,7 +5522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5407,7 +5530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -5415,7 +5538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -5423,7 +5546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -5431,7 +5554,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -5439,7 +5562,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -5447,7 +5570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -5455,7 +5578,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -5463,7 +5586,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -5471,7 +5594,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -5479,7 +5602,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -5487,7 +5610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -5495,7 +5618,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -5503,7 +5626,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -5511,7 +5634,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -5519,12 +5642,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -5532,7 +5655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -5540,7 +5663,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -5548,7 +5671,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -5556,7 +5679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5564,7 +5687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -5572,7 +5695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -5580,7 +5703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -5588,7 +5711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -5596,7 +5719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -5604,7 +5727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -5612,7 +5735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -5620,7 +5743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -5628,7 +5751,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -5636,7 +5759,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -5644,7 +5767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -5652,15 +5775,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -5668,7 +5791,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5676,7 +5799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -5684,7 +5807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -5692,7 +5815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -5700,7 +5823,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -5708,7 +5831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5716,7 +5839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -5724,7 +5847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -5732,7 +5855,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -5740,7 +5863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -5748,7 +5871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -5756,7 +5879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -5764,7 +5887,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -5772,7 +5895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>54</v>
       </c>

--- a/Assets/OriginalDatas/DNAUp.xlsx
+++ b/Assets/OriginalDatas/DNAUp.xlsx
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="245">
   <si>
     <t>升级属性ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1133,6 +1133,247 @@
       </rPr>
       <t>_1</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virus25</t>
+  </si>
+  <si>
+    <t>Virus26</t>
+  </si>
+  <si>
+    <t>Virus27</t>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfectSpeed</t>
+  </si>
+  <si>
+    <t>InfectHuman_1</t>
+  </si>
+  <si>
+    <t>InfectBlock_Climate_1</t>
+  </si>
+  <si>
+    <t>InfectBlock_Envi_1</t>
+  </si>
+  <si>
+    <t>CommunicateRate</t>
+  </si>
+  <si>
+    <t>CommunicateBlock_Climate_1</t>
+  </si>
+  <si>
+    <t>Medi_Start</t>
+  </si>
+  <si>
+    <t>Medi_Work</t>
+  </si>
+  <si>
+    <t>Medi_Spd</t>
+  </si>
+  <si>
+    <t>Human1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human2</t>
+  </si>
+  <si>
+    <t>Human3</t>
+  </si>
+  <si>
+    <t>Human4</t>
+  </si>
+  <si>
+    <t>Human5</t>
+  </si>
+  <si>
+    <t>Human6</t>
+  </si>
+  <si>
+    <t>Human7</t>
+  </si>
+  <si>
+    <t>Human8</t>
+  </si>
+  <si>
+    <t>Human9</t>
+  </si>
+  <si>
+    <t>Human10</t>
+  </si>
+  <si>
+    <t>Human11</t>
+  </si>
+  <si>
+    <t>Human12</t>
+  </si>
+  <si>
+    <t>Human13</t>
+  </si>
+  <si>
+    <t>Human14</t>
+  </si>
+  <si>
+    <t>Human15</t>
+  </si>
+  <si>
+    <t>Human16</t>
+  </si>
+  <si>
+    <t>Human17</t>
+  </si>
+  <si>
+    <t>Human18</t>
+  </si>
+  <si>
+    <t>Human19</t>
+  </si>
+  <si>
+    <t>Human20</t>
+  </si>
+  <si>
+    <t>Human21</t>
+  </si>
+  <si>
+    <t>Human22</t>
+  </si>
+  <si>
+    <t>Human23</t>
+  </si>
+  <si>
+    <t>Human24</t>
+  </si>
+  <si>
+    <t>Human25</t>
+  </si>
+  <si>
+    <t>Human26</t>
+  </si>
+  <si>
+    <t>Human27</t>
+  </si>
+  <si>
+    <t>Human28</t>
+  </si>
+  <si>
+    <t>Human29</t>
+  </si>
+  <si>
+    <t>Human30</t>
+  </si>
+  <si>
+    <t>Human31</t>
+  </si>
+  <si>
+    <t>Human32</t>
+  </si>
+  <si>
+    <t>DrainLife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tk</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eal</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ef</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfect</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfectShield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPDecay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClimateBoost_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnviBoost_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1560,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:I26"/>
+      <selection activeCell="C3" sqref="C3:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1684,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>23</v>
@@ -1731,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>24</v>
@@ -1966,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>150</v>
@@ -2107,7 +2348,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>153</v>
@@ -2248,7 +2489,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>156</v>
@@ -2530,7 +2771,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>162</v>
@@ -2804,6 +3045,147 @@
         <v>1</v>
       </c>
       <c r="O26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="14">
+        <v>10</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14">
+        <v>10</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>10</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+      <c r="J27" s="14">
+        <v>6</v>
+      </c>
+      <c r="K27" s="14">
+        <v>7</v>
+      </c>
+      <c r="L27" s="14">
+        <v>5</v>
+      </c>
+      <c r="M27" s="14">
+        <v>8</v>
+      </c>
+      <c r="N27" s="14">
+        <v>1</v>
+      </c>
+      <c r="O27" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="14">
+        <v>10</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>10</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>10</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1</v>
+      </c>
+      <c r="J28" s="14">
+        <v>6</v>
+      </c>
+      <c r="K28" s="14">
+        <v>7</v>
+      </c>
+      <c r="L28" s="14">
+        <v>5</v>
+      </c>
+      <c r="M28" s="14">
+        <v>8</v>
+      </c>
+      <c r="N28" s="14">
+        <v>1</v>
+      </c>
+      <c r="O28" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="14">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
+        <v>10</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14">
+        <v>10</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14">
+        <v>6</v>
+      </c>
+      <c r="K29" s="14">
+        <v>7</v>
+      </c>
+      <c r="L29" s="14">
+        <v>5</v>
+      </c>
+      <c r="M29" s="14">
+        <v>8</v>
+      </c>
+      <c r="N29" s="14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2819,7 +3201,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:I34"/>
+      <selection activeCell="C3" sqref="C3:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2940,9 +3322,8 @@
       <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="7" t="str">
-        <f>B3</f>
-        <v>MaxHP</v>
+      <c r="C3" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="D3" s="14">
         <v>10</v>
@@ -2988,9 +3369,8 @@
       <c r="B4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="8" t="str">
-        <f t="shared" ref="C4:C18" si="0">B4</f>
-        <v>MaxInfection</v>
+      <c r="C4" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -3034,11 +3414,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Atk_P</v>
+        <v>189</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="D5" s="14">
         <v>10</v>
@@ -3082,11 +3461,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Atk_M</v>
+        <v>190</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="D6" s="14">
         <v>10</v>
@@ -3130,11 +3508,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Def_P</v>
+        <v>191</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="D7" s="14">
         <v>10</v>
@@ -3178,11 +3555,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Def_M</v>
+        <v>192</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="14">
         <v>10</v>
@@ -3228,9 +3604,8 @@
       <c r="B9" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>InfectShield</v>
+      <c r="C9" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="D9" s="14">
         <v>10</v>
@@ -3276,9 +3651,8 @@
       <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>InfectionAnti</v>
+      <c r="C10" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D10" s="14">
         <v>10</v>
@@ -3324,9 +3698,8 @@
       <c r="B11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>CommunicationAnti</v>
+      <c r="C11" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="D11" s="14">
         <v>10</v>
@@ -3372,9 +3745,8 @@
       <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>HPHealing</v>
+      <c r="C12" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
@@ -3420,9 +3792,8 @@
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ClimateBoost_1</v>
+      <c r="C13" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="D13" s="14">
         <v>10</v>
@@ -3468,9 +3839,8 @@
       <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ClimateBoost_2</v>
+      <c r="C14" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D14" s="14">
         <v>10</v>
@@ -3516,9 +3886,8 @@
       <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ClimateBoost_3</v>
+      <c r="C15" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="D15" s="14">
         <v>10</v>
@@ -3564,9 +3933,8 @@
       <c r="B16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>EnviBoost_1</v>
+      <c r="C16" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="D16" s="14">
         <v>10</v>
@@ -3612,9 +3980,8 @@
       <c r="B17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>EnviBoost_2</v>
+      <c r="C17" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D17" s="14">
         <v>10</v>
@@ -3660,50 +4027,49 @@
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>10</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" ref="J18:O18" si="0">J3*2</f>
+        <v>12</v>
+      </c>
+      <c r="K18" s="10">
         <f t="shared" si="0"/>
-        <v>EnviBoost_3</v>
-      </c>
-      <c r="D18" s="14">
-        <v>10</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <v>10</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14">
-        <v>10</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10">
-        <f t="shared" ref="J18:O18" si="1">J3*2</f>
-        <v>12</v>
-      </c>
-      <c r="K18" s="10">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="L18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -3714,9 +4080,8 @@
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="8" t="str">
-        <f t="shared" ref="C19:C34" si="2">B19&amp;"_1"</f>
-        <v>MaxHP_1</v>
+      <c r="C19" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="D19" s="14">
         <v>10</v>
@@ -3737,27 +4102,27 @@
         <v>1</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" ref="J19:O19" si="3">J4*2</f>
+        <f t="shared" ref="J19:O19" si="1">J4*2</f>
         <v>12</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3768,50 +4133,49 @@
       <c r="B20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="14">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>10</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" ref="J20:O20" si="2">J5*2</f>
+        <v>12</v>
+      </c>
+      <c r="K20" s="6">
         <f t="shared" si="2"/>
-        <v>MaxInfection_1</v>
-      </c>
-      <c r="D20" s="14">
-        <v>10</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14">
-        <v>10</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14">
-        <v>10</v>
-      </c>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" ref="J20:O20" si="4">J5*2</f>
-        <v>12</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3820,11 +4184,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Atk_P_1</v>
+        <v>189</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="D21" s="14">
         <v>10</v>
@@ -3845,27 +4208,27 @@
         <v>1</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" ref="J21:O21" si="5">J6*2</f>
+        <f t="shared" ref="J21:O21" si="3">J6*2</f>
         <v>12</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3874,11 +4237,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Atk_M_1</v>
+        <v>190</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="D22" s="14">
         <v>10</v>
@@ -3899,27 +4261,27 @@
         <v>1</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" ref="J22:O22" si="6">J7*2</f>
+        <f t="shared" ref="J22:O22" si="4">J7*2</f>
         <v>12</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -3928,11 +4290,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Def_P_1</v>
+        <v>191</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D23" s="14">
         <v>10</v>
@@ -3953,27 +4314,27 @@
         <v>1</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ref="J23:O23" si="7">J8*2</f>
+        <f t="shared" ref="J23:O23" si="5">J8*2</f>
         <v>12</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3982,11 +4343,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Def_M_1</v>
+        <v>192</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="D24" s="14">
         <v>10</v>
@@ -4007,27 +4367,27 @@
         <v>1</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" ref="J24:O24" si="8">J9*2</f>
+        <f t="shared" ref="J24:O24" si="6">J9*2</f>
         <v>12</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4038,9 +4398,8 @@
       <c r="B25" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>InfectShield_1</v>
+      <c r="C25" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D25" s="14">
         <v>10</v>
@@ -4061,27 +4420,27 @@
         <v>1</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25:O25" si="9">J10*2</f>
+        <f t="shared" ref="J25:O25" si="7">J10*2</f>
         <v>12</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4092,9 +4451,8 @@
       <c r="B26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>InfectionAnti_1</v>
+      <c r="C26" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="D26" s="14">
         <v>10</v>
@@ -4115,27 +4473,27 @@
         <v>1</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" ref="J26:O26" si="10">J11*2</f>
+        <f t="shared" ref="J26:O26" si="8">J11*2</f>
         <v>12</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -4146,9 +4504,8 @@
       <c r="B27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>CommunicationAnti_1</v>
+      <c r="C27" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D27" s="14">
         <v>10</v>
@@ -4169,27 +4526,27 @@
         <v>1</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" ref="J27:O27" si="11">J12*2</f>
+        <f t="shared" ref="J27:O27" si="9">J12*2</f>
         <v>12</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4200,9 +4557,8 @@
       <c r="B28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>HPHealing_1</v>
+      <c r="C28" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D28" s="14">
         <v>10</v>
@@ -4223,27 +4579,27 @@
         <v>1</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" ref="J28:O28" si="12">J13*2</f>
+        <f t="shared" ref="J28:O28" si="10">J13*2</f>
         <v>12</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -4254,9 +4610,8 @@
       <c r="B29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>ClimateBoost_1_1</v>
+      <c r="C29" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D29" s="14">
         <v>10</v>
@@ -4277,27 +4632,27 @@
         <v>1</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ref="J29:O29" si="13">J14*2</f>
+        <f t="shared" ref="J29:O29" si="11">J14*2</f>
         <v>12</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4308,9 +4663,8 @@
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>ClimateBoost_2_1</v>
+      <c r="C30" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D30" s="14">
         <v>10</v>
@@ -4331,27 +4685,27 @@
         <v>1</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" ref="J30:O30" si="14">J15*2</f>
+        <f t="shared" ref="J30:O30" si="12">J15*2</f>
         <v>12</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
@@ -4362,9 +4716,8 @@
       <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>ClimateBoost_3_1</v>
+      <c r="C31" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D31" s="14">
         <v>10</v>
@@ -4385,27 +4738,27 @@
         <v>1</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31:O31" si="15">J16*2</f>
+        <f t="shared" ref="J31:O31" si="13">J16*2</f>
         <v>12</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
@@ -4416,9 +4769,8 @@
       <c r="B32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>EnviBoost_1_1</v>
+      <c r="C32" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="D32" s="14">
         <v>10</v>
@@ -4439,27 +4791,27 @@
         <v>1</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:O32" si="16">J17*2</f>
+        <f t="shared" ref="J32:O32" si="14">J17*2</f>
         <v>12</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -4470,9 +4822,8 @@
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>EnviBoost_2_1</v>
+      <c r="C33" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D33" s="14">
         <v>10</v>
@@ -4493,27 +4844,27 @@
         <v>1</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" ref="J33:O33" si="17">J18*2</f>
+        <f t="shared" ref="J33:O33" si="15">J18*2</f>
         <v>24</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
@@ -4524,9 +4875,8 @@
       <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>EnviBoost_3_1</v>
+      <c r="C34" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D34" s="14">
         <v>10</v>
@@ -4547,27 +4897,27 @@
         <v>1</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" ref="J34:O34" si="18">J19*2</f>
+        <f t="shared" ref="J34:O34" si="16">J19*2</f>
         <v>24</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
@@ -4584,7 +4934,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:I17"/>
+      <selection activeCell="B3" sqref="B3:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4703,8 +5053,8 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>80</v>
+      <c r="B3" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>29</v>
@@ -4750,8 +5100,8 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>58</v>
+      <c r="B4" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>30</v>
@@ -4797,8 +5147,8 @@
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>83</v>
+      <c r="B5" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>31</v>
@@ -4844,8 +5194,8 @@
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>85</v>
+      <c r="B6" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>32</v>
@@ -4891,8 +5241,8 @@
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
+      <c r="B7" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>33</v>
@@ -4938,8 +5288,8 @@
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>89</v>
+      <c r="B8" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>34</v>
@@ -4985,8 +5335,8 @@
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>91</v>
+      <c r="B9" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>168</v>
@@ -5032,8 +5382,8 @@
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>93</v>
+      <c r="B10" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>169</v>
@@ -5079,8 +5429,8 @@
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>95</v>
+      <c r="B11" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>170</v>
@@ -5126,8 +5476,8 @@
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>46</v>
+      <c r="B12" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>171</v>
@@ -5173,7 +5523,7 @@
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5220,7 +5570,7 @@
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -5267,8 +5617,8 @@
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>98</v>
+      <c r="B15" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>174</v>
@@ -5314,7 +5664,7 @@
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -5361,7 +5711,7 @@
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
